--- a/biology/Zoologie/Hyperolius_riggenbachi/Hyperolius_riggenbachi.xlsx
+++ b/biology/Zoologie/Hyperolius_riggenbachi/Hyperolius_riggenbachi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Hyperolius riggenbachi est une espèce d'amphibiens de la famille des Hyperoliidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hyperolius riggenbachi est une espèce d'amphibiens de la famille des Hyperoliidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Cette espèce se rencontre entre 900 et 1 800 m d'altitude[1],[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Cette espèce se rencontre entre 900 et 1 800 m d'altitude, :
 dans le Nord et l'Ouest du Cameroun ;
 dans le sud-est du Nigeria.</t>
         </is>
@@ -543,9 +557,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Hyperolius riggenbachi mesure de 27 à 30 mm pour les mâles et jusqu'à 40 mm pour les femelles. Les têtards mesurent 42 mm dont 25 mm pour la queue[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hyperolius riggenbachi mesure de 27 à 30 mm pour les mâles et jusqu'à 40 mm pour les femelles. Les têtards mesurent 42 mm dont 25 mm pour la queue.
 </t>
         </is>
       </c>
@@ -574,9 +590,11 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon Schiøtz, 1999 deux sous-espèces peuvent être reconnues[4] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon Schiøtz, 1999 deux sous-espèces peuvent être reconnues :
 Hyperolius riggenbachi riggenbachi (Nieden, 1910) - Dos présentant un motif complexe vermiculé en noir, rouge et jaune. Ventre orange.
 Hyperolius riggenbachi hieroglyphicus Ahl, 1931 - Dos présentant des motifs vermiculés de couleur jaune vif sur fond sombre ou, à l'inverse, motifs sombres sur fond jaune. Ventre orange vif ou rouge. Face externe des pattes antérieures et postérieures de couleur rouge brillante.</t>
         </is>
@@ -606,9 +624,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Fritz Wilhelm Riggenbach (1864-1944)[5].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Fritz Wilhelm Riggenbach (1864-1944).
 </t>
         </is>
       </c>
@@ -637,7 +657,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Nieden, 1910 : Neue Reptilien und Amphibien aus Kamerun. Archiv für Naturgeschichte, Berlin, vol. 76, p. 234-246 (texte intégral).</t>
         </is>
